--- a/conf_xlsx/Config_Server.xlsx
+++ b/conf_xlsx/Config_Server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Mu\ProjectGameServer\MiracleServer\etc_server\conf_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F872734F-797B-4C16-974A-BF69808F3268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C22C78E-4CFF-4318-8CC4-03023EA8354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12195" yWindow="8175" windowWidth="21360" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8475" yWindow="6960" windowWidth="25185" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,50 @@
   </si>
   <si>
     <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Type":"OuterConfig","Address":"127.0.0.1:20010"},{"Type":"InnerConfig","Address":"127.0.0.1:10010"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Type":"OuterConfig","Address":"127.0.0.1:20011"},{"Type":"InnerConfig","Address":"127.0.0.1:10011"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Type":"OuterConfig","Address":"127.0.0.1:20012"},{"Type":"InnerConfig","Address":"127.0.0.1:10012"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Type":"InnerConfig","Address":"127.0.0.1:10014"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Type":"InnerConfig","Address":"127.0.0.1:10013"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,8 +139,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -377,44 +425,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="84.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
